--- a/云南腾电现场评估签字人员表.xlsx
+++ b/云南腾电现场评估签字人员表.xlsx
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/云南腾电现场评估签字人员表.xlsx
+++ b/云南腾电现场评估签字人员表.xlsx
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
